--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/GridlinesAndZoom.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/GridlinesAndZoom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027494E7-1C21-4F79-8862-571F5FE9BDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="14820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -18,11 +19,20 @@
     <sheet name="SourceData02" sheetId="5" r:id="rId4"/>
     <sheet name="ExpensesPT" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -249,12 +259,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -337,8 +347,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -347,13 +357,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,17 +379,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -494,10 +504,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -534,7 +544,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -625,6 +635,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -640,6 +691,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -655,6 +747,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -670,6 +803,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1152,7 +1326,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="190887968"/>
@@ -1211,7 +1385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="190887640"/>
@@ -1253,7 +1427,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1283,7 +1457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2298,7 +2472,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Curt" refreshedDate="42760.009094907407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Curt" refreshedDate="42760.009094907407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="DeptExpenses2"/>
   </cacheSource>
@@ -2328,7 +2502,7 @@
         <s v="Public Areas"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Expenses" numFmtId="164">
+    <cacheField name="Expenses" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18316" maxValue="93954"/>
     </cacheField>
   </cacheFields>
@@ -3018,7 +3192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -3047,7 +3221,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -3166,67 +3340,70 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="RoomService" displayName="RoomService" ref="A3:D28" totalsRowCount="1" headerRowDxfId="11">
-  <autoFilter ref="A3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RoomService" displayName="RoomService" ref="A3:D28" totalsRowCount="1" headerRowDxfId="11">
+  <autoFilter ref="A3:D27" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="5" name="Revenue" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Revenue" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="8">
-  <autoFilter ref="A3:E163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="A3:E163" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="Guests" totalsRowFunction="sum" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Guests" totalsRowFunction="sum" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="H3:L163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="H3:L163" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="Rate" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rate" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DeptExpenses2" displayName="DeptExpenses2" ref="A3:E100" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A3:E99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DeptExpenses2" displayName="DeptExpenses2" ref="A3:E100" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A3:E99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="4" name="Department" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="Expenses" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Currency" totalsRowCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Month"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Department" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Expenses" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3545,50 +3722,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>RoomService[[#Totals],[Revenue]]</f>
         <v>977443</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <f>GuestCount[[#Totals],[Guests]]</f>
         <v>241078</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f>DeptExpenses2[[#Totals],[Expenses]]</f>
         <v>5347182</v>
@@ -3602,22 +3779,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3631,7 +3808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -3645,7 +3822,7 @@
         <v>15834</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -3659,7 +3836,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -3673,7 +3850,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3687,7 +3864,7 @@
         <v>58449</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -3701,7 +3878,7 @@
         <v>27764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -3715,7 +3892,7 @@
         <v>23472</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -3729,7 +3906,7 @@
         <v>51503</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -3743,7 +3920,7 @@
         <v>46833</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -3757,7 +3934,7 @@
         <v>59446</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -3771,7 +3948,7 @@
         <v>21379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -3785,7 +3962,7 @@
         <v>37933</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -3799,7 +3976,7 @@
         <v>58261</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -3813,7 +3990,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -3827,7 +4004,7 @@
         <v>30722</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -3841,7 +4018,7 @@
         <v>58381</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -3855,7 +4032,7 @@
         <v>54868</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -3869,7 +4046,7 @@
         <v>29964</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -3883,7 +4060,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2016</v>
       </c>
@@ -3897,7 +4074,7 @@
         <v>58372</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -3911,7 +4088,7 @@
         <v>32005</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -3925,7 +4102,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -3939,7 +4116,7 @@
         <v>31603</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -3953,7 +4130,7 @@
         <v>58416</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -3967,7 +4144,7 @@
         <v>24428</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3986,22 +4163,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:L164"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -4065,7 +4242,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -4097,7 +4274,7 @@
         <v>108.12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -4129,7 +4306,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4161,7 +4338,7 @@
         <v>104.01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -4193,7 +4370,7 @@
         <v>101.06</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -4225,7 +4402,7 @@
         <v>116.17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -4257,7 +4434,7 @@
         <v>90.86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -4289,7 +4466,7 @@
         <v>112.13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -4321,7 +4498,7 @@
         <v>117.84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -4353,7 +4530,7 @@
         <v>91.78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -4385,7 +4562,7 @@
         <v>111.17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -4417,7 +4594,7 @@
         <v>101.84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -4449,7 +4626,7 @@
         <v>99.09</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -4481,7 +4658,7 @@
         <v>101.47</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -4513,7 +4690,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -4545,7 +4722,7 @@
         <v>112.41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -4577,7 +4754,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -4609,7 +4786,7 @@
         <v>96.01</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -4641,7 +4818,7 @@
         <v>101.42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -4673,7 +4850,7 @@
         <v>116.41</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -4705,7 +4882,7 @@
         <v>117.67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -4737,7 +4914,7 @@
         <v>89.34</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -4769,7 +4946,7 @@
         <v>97.34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -4801,7 +4978,7 @@
         <v>104.62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -4833,7 +5010,7 @@
         <v>108.53</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -4865,7 +5042,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -4897,7 +5074,7 @@
         <v>94.93</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -4929,7 +5106,7 @@
         <v>110.51</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -4961,7 +5138,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -4993,7 +5170,7 @@
         <v>111.19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -5025,7 +5202,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -5057,7 +5234,7 @@
         <v>86.62</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -5089,7 +5266,7 @@
         <v>90.76</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -5121,7 +5298,7 @@
         <v>107.18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -5153,7 +5330,7 @@
         <v>88.42</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -5185,7 +5362,7 @@
         <v>92.07</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -5217,7 +5394,7 @@
         <v>104.96</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -5249,7 +5426,7 @@
         <v>88.07</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -5281,7 +5458,7 @@
         <v>96.93</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -5313,7 +5490,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -5345,7 +5522,7 @@
         <v>113.58</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -5377,7 +5554,7 @@
         <v>107.92</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -5409,7 +5586,7 @@
         <v>91.07</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -5441,7 +5618,7 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -5473,7 +5650,7 @@
         <v>98.35</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -5505,7 +5682,7 @@
         <v>89.32</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -5537,7 +5714,7 @@
         <v>106.47</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -5569,7 +5746,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -5601,7 +5778,7 @@
         <v>96.29</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -5633,7 +5810,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -5665,7 +5842,7 @@
         <v>102.46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -5697,7 +5874,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -5729,7 +5906,7 @@
         <v>106.01</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -5761,7 +5938,7 @@
         <v>94.31</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -5793,7 +5970,7 @@
         <v>85.27</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -5825,7 +6002,7 @@
         <v>109.92</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -5857,7 +6034,7 @@
         <v>109.83</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -5889,7 +6066,7 @@
         <v>114.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -5921,7 +6098,7 @@
         <v>117.72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -5953,7 +6130,7 @@
         <v>109.58</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -5985,7 +6162,7 @@
         <v>106.02</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -6017,7 +6194,7 @@
         <v>102.56</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -6049,7 +6226,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -6081,7 +6258,7 @@
         <v>93.61</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -6113,7 +6290,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -6145,7 +6322,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -6177,7 +6354,7 @@
         <v>97.19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -6209,7 +6386,7 @@
         <v>100.97</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -6241,7 +6418,7 @@
         <v>117.82</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -6273,7 +6450,7 @@
         <v>104.37</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -6305,7 +6482,7 @@
         <v>88.08</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -6337,7 +6514,7 @@
         <v>87.55</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -6369,7 +6546,7 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -6401,7 +6578,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -6433,7 +6610,7 @@
         <v>107.91</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2015</v>
       </c>
@@ -6465,7 +6642,7 @@
         <v>93.12</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2015</v>
       </c>
@@ -6497,7 +6674,7 @@
         <v>105.86</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2015</v>
       </c>
@@ -6529,7 +6706,7 @@
         <v>85.87</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2015</v>
       </c>
@@ -6561,7 +6738,7 @@
         <v>117.93</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2015</v>
       </c>
@@ -6593,7 +6770,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -6625,7 +6802,7 @@
         <v>103.18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -6657,7 +6834,7 @@
         <v>91.33</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -6689,7 +6866,7 @@
         <v>115.57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -6721,7 +6898,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -6753,7 +6930,7 @@
         <v>106.04</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -6785,7 +6962,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -6817,7 +6994,7 @@
         <v>88.55</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -6849,7 +7026,7 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -6881,7 +7058,7 @@
         <v>108.13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -6913,7 +7090,7 @@
         <v>87.64</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -6945,7 +7122,7 @@
         <v>94.66</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -6977,7 +7154,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -7009,7 +7186,7 @@
         <v>115.67</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -7041,7 +7218,7 @@
         <v>114.23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -7073,7 +7250,7 @@
         <v>88.34</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -7105,7 +7282,7 @@
         <v>108.35</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2016</v>
       </c>
@@ -7137,7 +7314,7 @@
         <v>114.69</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2016</v>
       </c>
@@ -7169,7 +7346,7 @@
         <v>109.84</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2016</v>
       </c>
@@ -7201,7 +7378,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2016</v>
       </c>
@@ -7233,7 +7410,7 @@
         <v>101.62</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2016</v>
       </c>
@@ -7265,7 +7442,7 @@
         <v>101.37</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2016</v>
       </c>
@@ -7297,7 +7474,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2016</v>
       </c>
@@ -7329,7 +7506,7 @@
         <v>117.85</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2016</v>
       </c>
@@ -7361,7 +7538,7 @@
         <v>114.71</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2016</v>
       </c>
@@ -7393,7 +7570,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2016</v>
       </c>
@@ -7425,7 +7602,7 @@
         <v>111.81</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2016</v>
       </c>
@@ -7457,7 +7634,7 @@
         <v>98.15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2016</v>
       </c>
@@ -7489,7 +7666,7 @@
         <v>102.23</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2016</v>
       </c>
@@ -7521,7 +7698,7 @@
         <v>105.82</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2016</v>
       </c>
@@ -7553,7 +7730,7 @@
         <v>108.72</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2016</v>
       </c>
@@ -7585,7 +7762,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2016</v>
       </c>
@@ -7617,7 +7794,7 @@
         <v>117.25</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2016</v>
       </c>
@@ -7649,7 +7826,7 @@
         <v>87.71</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2016</v>
       </c>
@@ -7681,7 +7858,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2016</v>
       </c>
@@ -7713,7 +7890,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2016</v>
       </c>
@@ -7745,7 +7922,7 @@
         <v>112.93</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2016</v>
       </c>
@@ -7777,7 +7954,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2016</v>
       </c>
@@ -7809,7 +7986,7 @@
         <v>97.28</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2016</v>
       </c>
@@ -7841,7 +8018,7 @@
         <v>103.96</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2016</v>
       </c>
@@ -7873,7 +8050,7 @@
         <v>114.59</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2016</v>
       </c>
@@ -7905,7 +8082,7 @@
         <v>98.73</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2016</v>
       </c>
@@ -7937,7 +8114,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2016</v>
       </c>
@@ -7969,7 +8146,7 @@
         <v>103.79</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2016</v>
       </c>
@@ -8001,7 +8178,7 @@
         <v>112.37</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2016</v>
       </c>
@@ -8033,7 +8210,7 @@
         <v>100.43</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2016</v>
       </c>
@@ -8065,7 +8242,7 @@
         <v>85.57</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2016</v>
       </c>
@@ -8097,7 +8274,7 @@
         <v>105.37</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2016</v>
       </c>
@@ -8129,7 +8306,7 @@
         <v>87.54</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2016</v>
       </c>
@@ -8161,7 +8338,7 @@
         <v>102.95</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2016</v>
       </c>
@@ -8193,7 +8370,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2016</v>
       </c>
@@ -8225,7 +8402,7 @@
         <v>105.36</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2016</v>
       </c>
@@ -8257,7 +8434,7 @@
         <v>92.24</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2016</v>
       </c>
@@ -8289,7 +8466,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2016</v>
       </c>
@@ -8321,7 +8498,7 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2016</v>
       </c>
@@ -8353,7 +8530,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -8385,7 +8562,7 @@
         <v>107.37</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2016</v>
       </c>
@@ -8417,7 +8594,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2016</v>
       </c>
@@ -8449,7 +8626,7 @@
         <v>100.81</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2016</v>
       </c>
@@ -8481,7 +8658,7 @@
         <v>111.78</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2016</v>
       </c>
@@ -8513,7 +8690,7 @@
         <v>105.34</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2016</v>
       </c>
@@ -8545,7 +8722,7 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2016</v>
       </c>
@@ -8577,7 +8754,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2016</v>
       </c>
@@ -8609,7 +8786,7 @@
         <v>93.89</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2016</v>
       </c>
@@ -8641,7 +8818,7 @@
         <v>107.76</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2016</v>
       </c>
@@ -8673,7 +8850,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2016</v>
       </c>
@@ -8705,7 +8882,7 @@
         <v>108.11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2016</v>
       </c>
@@ -8737,7 +8914,7 @@
         <v>95.69</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2016</v>
       </c>
@@ -8769,7 +8946,7 @@
         <v>89.86</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2016</v>
       </c>
@@ -8801,7 +8978,7 @@
         <v>94.24</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2016</v>
       </c>
@@ -8833,7 +9010,7 @@
         <v>116.74</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2016</v>
       </c>
@@ -8865,7 +9042,7 @@
         <v>115.82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2016</v>
       </c>
@@ -8897,7 +9074,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2016</v>
       </c>
@@ -8929,7 +9106,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2016</v>
       </c>
@@ -8961,7 +9138,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2016</v>
       </c>
@@ -8993,7 +9170,7 @@
         <v>114.39</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2016</v>
       </c>
@@ -9025,7 +9202,7 @@
         <v>91.52</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2016</v>
       </c>
@@ -9057,7 +9234,7 @@
         <v>114.11</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2016</v>
       </c>
@@ -9089,7 +9266,7 @@
         <v>101.31</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2016</v>
       </c>
@@ -9121,7 +9298,7 @@
         <v>109.62</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2016</v>
       </c>
@@ -9153,7 +9330,7 @@
         <v>102.94</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>56</v>
       </c>
@@ -9180,21 +9357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9211,7 +9388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -9228,7 +9405,7 @@
         <v>37301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -9245,7 +9422,7 @@
         <v>75640</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -9262,7 +9439,7 @@
         <v>57545</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -9279,7 +9456,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -9296,7 +9473,7 @@
         <v>62013</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -9313,7 +9490,7 @@
         <v>58960</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -9330,7 +9507,7 @@
         <v>55261</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -9347,7 +9524,7 @@
         <v>75780</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9364,7 +9541,7 @@
         <v>69559</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -9381,7 +9558,7 @@
         <v>59510</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -9398,7 +9575,7 @@
         <v>79962</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -9415,7 +9592,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -9432,7 +9609,7 @@
         <v>52165</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -9449,7 +9626,7 @@
         <v>40110</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -9466,7 +9643,7 @@
         <v>67261</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -9483,7 +9660,7 @@
         <v>47617</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -9500,7 +9677,7 @@
         <v>71176</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -9517,7 +9694,7 @@
         <v>65439</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -9534,7 +9711,7 @@
         <v>70582</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -9551,7 +9728,7 @@
         <v>35030</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -9568,7 +9745,7 @@
         <v>27103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -9585,7 +9762,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -9602,7 +9779,7 @@
         <v>63287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -9619,7 +9796,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -9636,7 +9813,7 @@
         <v>52318</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -9653,7 +9830,7 @@
         <v>72443</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -9670,7 +9847,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -9687,7 +9864,7 @@
         <v>77367</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -9704,7 +9881,7 @@
         <v>52065</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -9721,7 +9898,7 @@
         <v>52808</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -9738,7 +9915,7 @@
         <v>68390</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -9755,7 +9932,7 @@
         <v>69946</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -9772,7 +9949,7 @@
         <v>75666</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -9789,7 +9966,7 @@
         <v>46796</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -9806,7 +9983,7 @@
         <v>73540</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -9823,7 +10000,7 @@
         <v>40951</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -9840,7 +10017,7 @@
         <v>77433</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -9857,7 +10034,7 @@
         <v>32667</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -9874,7 +10051,7 @@
         <v>35316</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -9891,7 +10068,7 @@
         <v>72567</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -9908,7 +10085,7 @@
         <v>28398</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -9925,7 +10102,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -9942,7 +10119,7 @@
         <v>35381</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -9959,7 +10136,7 @@
         <v>64908</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -9976,7 +10153,7 @@
         <v>49790</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -9993,7 +10170,7 @@
         <v>49002</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -10010,7 +10187,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -10027,7 +10204,7 @@
         <v>73866</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2016</v>
       </c>
@@ -10044,7 +10221,7 @@
         <v>84430</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2016</v>
       </c>
@@ -10061,7 +10238,7 @@
         <v>46964</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2016</v>
       </c>
@@ -10078,7 +10255,7 @@
         <v>52440</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -10095,7 +10272,7 @@
         <v>27753</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2016</v>
       </c>
@@ -10112,7 +10289,7 @@
         <v>72544</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -10129,7 +10306,7 @@
         <v>62182</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2016</v>
       </c>
@@ -10146,7 +10323,7 @@
         <v>87430</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2016</v>
       </c>
@@ -10163,7 +10340,7 @@
         <v>93837</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -10180,7 +10357,7 @@
         <v>22157</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2016</v>
       </c>
@@ -10197,7 +10374,7 @@
         <v>85423</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2016</v>
       </c>
@@ -10214,7 +10391,7 @@
         <v>61182</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2016</v>
       </c>
@@ -10231,7 +10408,7 @@
         <v>18754</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2016</v>
       </c>
@@ -10248,7 +10425,7 @@
         <v>18468</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -10265,7 +10442,7 @@
         <v>84635</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -10282,7 +10459,7 @@
         <v>25513</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -10299,7 +10476,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -10316,7 +10493,7 @@
         <v>92183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -10333,7 +10510,7 @@
         <v>53164</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2016</v>
       </c>
@@ -10350,7 +10527,7 @@
         <v>22790</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2016</v>
       </c>
@@ -10367,7 +10544,7 @@
         <v>51804</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -10384,7 +10561,7 @@
         <v>20778</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2016</v>
       </c>
@@ -10401,7 +10578,7 @@
         <v>37751</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2016</v>
       </c>
@@ -10418,7 +10595,7 @@
         <v>79844</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2016</v>
       </c>
@@ -10435,7 +10612,7 @@
         <v>58982</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2016</v>
       </c>
@@ -10452,7 +10629,7 @@
         <v>26912</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2016</v>
       </c>
@@ -10469,7 +10646,7 @@
         <v>77981</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2016</v>
       </c>
@@ -10486,7 +10663,7 @@
         <v>29758</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2016</v>
       </c>
@@ -10503,7 +10680,7 @@
         <v>71189</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2016</v>
       </c>
@@ -10520,7 +10697,7 @@
         <v>74910</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2016</v>
       </c>
@@ -10537,7 +10714,7 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2016</v>
       </c>
@@ -10554,7 +10731,7 @@
         <v>93802</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2016</v>
       </c>
@@ -10571,7 +10748,7 @@
         <v>64232</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -10588,7 +10765,7 @@
         <v>29862</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -10605,7 +10782,7 @@
         <v>34236</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -10622,7 +10799,7 @@
         <v>64089</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -10639,7 +10816,7 @@
         <v>20760</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -10656,7 +10833,7 @@
         <v>93954</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -10673,7 +10850,7 @@
         <v>93464</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -10690,7 +10867,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -10707,7 +10884,7 @@
         <v>18316</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -10724,7 +10901,7 @@
         <v>76085</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -10741,7 +10918,7 @@
         <v>46874</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -10758,7 +10935,7 @@
         <v>77908</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -10775,7 +10952,7 @@
         <v>67849</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -10792,7 +10969,7 @@
         <v>92555</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -10809,7 +10986,7 @@
         <v>20823</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -10826,7 +11003,7 @@
         <v>91802</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -10843,7 +11020,7 @@
         <v>19333</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -10864,24 +11041,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>70</v>
       </c>
@@ -10889,7 +11066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>67</v>
       </c>
@@ -10909,7 +11086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2015</v>
       </c>
@@ -10929,7 +11106,7 @@
         <v>2675103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -10949,7 +11126,7 @@
         <v>716639</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -10969,7 +11146,7 @@
         <v>627399</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -10989,7 +11166,7 @@
         <v>724807</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -11009,7 +11186,7 @@
         <v>606258</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>2016</v>
       </c>
@@ -11029,7 +11206,7 @@
         <v>2672079</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -11049,7 +11226,7 @@
         <v>715096</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2</v>
       </c>
@@ -11069,7 +11246,7 @@
         <v>590576</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>3</v>
       </c>
@@ -11089,7 +11266,7 @@
         <v>624617</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -11109,7 +11286,7 @@
         <v>741790</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>68</v>
       </c>
